--- a/APEN-2nd law/data_tables.xlsx
+++ b/APEN-2nd law/data_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Trunk/APEN-2nd law/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739C35C8-26E4-004B-876A-0978C94ADE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF60FFB3-8333-CD4F-9EE0-164C57F3A2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="15560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
